--- a/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6958534871440638</v>
+        <v>0.7168811412413516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9795609602497164</v>
+        <v>0.9789433229655897</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3847962284778847</v>
+        <v>0.3532230807592748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9946820119333272</v>
+        <v>0.9951183613836818</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1514930576432208</v>
+        <v>0.1538953859702571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984385933572086</v>
+        <v>0.998413833071382</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.533619553881336</v>
+        <v>0.5320896592049024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9968213805713159</v>
+        <v>0.9968304937173896</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7168811412413516</v>
+        <v>0.6746352193122216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9789433229655897</v>
+        <v>0.9801841963585517</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3532230807592748</v>
+        <v>0.3676154600665907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9951183613836818</v>
+        <v>0.9949194548047112</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1538953859702571</v>
+        <v>0.1534466317139522</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998413833071382</v>
+        <v>0.9984184582858154</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5320896592049024</v>
+        <v>0.4516369355307997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9968304937173896</v>
+        <v>0.9973097276373256</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6746352193122216</v>
+        <v>0.6829067359667368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9801841963585517</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.97994124024664</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6227787498567806</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3676154600665907</v>
+        <v>0.4038961864144212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9949194548047112</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.9944180453430562</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5245133784119467</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1534466317139522</v>
+        <v>0.1540378076254267</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984184582858154</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>0.9984123651617502</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3359641668615422</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -516,12 +530,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4516369355307997</v>
+        <v>0.451753926346256</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9973097276373256</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>0.9973090307564181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.555099691298675</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6829067359667368</v>
+        <v>0.6648436607028957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.97994124024664</v>
+        <v>0.9804718000845237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6227787498567806</v>
+        <v>0.5985497708647042</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4038961864144212</v>
+        <v>0.4007794473230393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9944180453430562</v>
+        <v>0.994461119521201</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5245133784119467</v>
+        <v>0.5312248764015917</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1540378076254267</v>
+        <v>0.1553632948569371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984123651617502</v>
+        <v>0.9983987036474841</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3359641668615422</v>
+        <v>0.3322693132296734</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -530,17 +577,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.451753926346256</v>
+        <v>0.5006861154425049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9973090307564181</v>
+        <v>0.9970175556674374</v>
       </c>
       <c r="D5" t="n">
-        <v>0.555099691298675</v>
+        <v>0.5868457625759361</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6648436607028957</v>
+        <v>0.7331181174200663</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9804718000845237</v>
+        <v>0.9784664004414199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5985497708647042</v>
+        <v>0.6623029683249402</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4007794473230393</v>
+        <v>0.2410320860048795</v>
       </c>
       <c r="C3" t="n">
-        <v>0.994461119521201</v>
+        <v>0.9966688713085116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5312248764015917</v>
+        <v>0.3680431895364141</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1553632948569371</v>
+        <v>0.1542566699619067</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9983987036474841</v>
+        <v>0.9984101093943154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3322693132296734</v>
+        <v>0.3357392818625894</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5006861154425049</v>
+        <v>0.4045655439972058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9970175556674374</v>
+        <v>0.9975901184861534</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5868457625759361</v>
+        <v>0.5182038504872997</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -604,6 +632,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7331181174200663</v>
+        <v>0.701822787626161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9784664004414199</v>
+        <v>0.9793856262575915</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6623029683249402</v>
+        <v>0.641497283543586</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H2" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2410320860048795</v>
+        <v>0.2238593371434285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9966688713085116</v>
+        <v>0.9969062033475454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3680431895364141</v>
+        <v>0.3559962329234037</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1542566699619067</v>
+        <v>0.1545887835715671</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984101093943154</v>
+        <v>0.9984066863701561</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3357392818625894</v>
+        <v>0.3326851305636568</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H4" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4045655439972058</v>
+        <v>0.3512088579486138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9975901184861534</v>
+        <v>0.9979079490410696</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5182038504872997</v>
+        <v>0.4891068564743543</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,14 +629,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Retinopatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.701822787626161</v>
+        <v>0.7044198058003014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9793856262575915</v>
+        <v>0.9793093450307613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.641497283543586</v>
+        <v>0.6234558220021471</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2238593371434285</v>
+        <v>0.4033619132383097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969062033475454</v>
+        <v>0.9944254291430121</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3559962329234037</v>
+        <v>0.5221831119622958</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1545887835715671</v>
+        <v>0.1541844837939589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984066863701561</v>
+        <v>0.9984108534017565</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3326851305636568</v>
+        <v>0.3330794258732463</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3512088579486138</v>
+        <v>0.5261219847194402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9979079490410696</v>
+        <v>0.9968660414515863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4891068564743543</v>
+        <v>0.5999788466200975</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
   </sheetData>
